--- a/Team-Data/2013-14/2-28-2013-14.xlsx
+++ b/Team-Data/2013-14/2-28-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>-0.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG2" t="n">
         <v>18</v>
@@ -774,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
         <v>20</v>
@@ -783,10 +850,10 @@
         <v>22</v>
       </c>
       <c r="AQ2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS2" t="n">
         <v>19</v>
@@ -816,7 +883,7 @@
         <v>26</v>
       </c>
       <c r="BB2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>25</v>
@@ -938,7 +1005,7 @@
         <v>26</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
@@ -980,22 +1047,22 @@
         <v>27</v>
       </c>
       <c r="AV3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW3" t="n">
         <v>22</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>21</v>
       </c>
       <c r="AX3" t="n">
         <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
       </c>
       <c r="BA3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB3" t="n">
         <v>25</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
         <v>16</v>
@@ -1153,7 +1220,7 @@
         <v>27</v>
       </c>
       <c r="AS4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT4" t="n">
         <v>29</v>
@@ -1183,7 +1250,7 @@
         <v>22</v>
       </c>
       <c r="BC4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" t="n">
         <v>27</v>
       </c>
       <c r="F5" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>0.466</v>
+        <v>0.474</v>
       </c>
       <c r="H5" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J5" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L5" t="n">
         <v>5.8</v>
@@ -1242,22 +1309,22 @@
         <v>16.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.35</v>
+        <v>0.354</v>
       </c>
       <c r="O5" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P5" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.728</v>
+        <v>0.726</v>
       </c>
       <c r="R5" t="n">
         <v>9.1</v>
       </c>
       <c r="S5" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T5" t="n">
         <v>42.2</v>
@@ -1269,7 +1336,7 @@
         <v>12.5</v>
       </c>
       <c r="W5" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X5" t="n">
         <v>5.1</v>
@@ -1281,16 +1348,16 @@
         <v>18.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>95</v>
+        <v>95.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1353,16 +1420,16 @@
         <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ5" t="n">
         <v>3</v>
       </c>
       <c r="BA5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC5" t="n">
         <v>17</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="n">
         <v>26</v>
       </c>
       <c r="G6" t="n">
-        <v>0.552</v>
+        <v>0.544</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
@@ -1412,43 +1479,43 @@
         <v>34.5</v>
       </c>
       <c r="J6" t="n">
-        <v>80.5</v>
+        <v>80.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="L6" t="n">
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.344</v>
+        <v>0.341</v>
       </c>
       <c r="O6" t="n">
         <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.773</v>
+        <v>0.775</v>
       </c>
       <c r="R6" t="n">
         <v>12.1</v>
       </c>
       <c r="S6" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T6" t="n">
-        <v>45.2</v>
+        <v>45.1</v>
       </c>
       <c r="U6" t="n">
         <v>22.3</v>
       </c>
       <c r="V6" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
@@ -1463,25 +1530,25 @@
         <v>19.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>4</v>
@@ -1508,10 +1575,10 @@
         <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AR6" t="n">
         <v>6</v>
@@ -1526,13 +1593,13 @@
         <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW6" t="n">
         <v>20</v>
       </c>
       <c r="AX6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" t="n">
         <v>36</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="H7" t="n">
         <v>48.8</v>
       </c>
       <c r="I7" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J7" t="n">
         <v>85.40000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.425</v>
+        <v>0.424</v>
       </c>
       <c r="L7" t="n">
         <v>7</v>
@@ -1606,13 +1673,13 @@
         <v>19.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O7" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P7" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="Q7" t="n">
         <v>0.75</v>
@@ -1621,40 +1688,40 @@
         <v>12.8</v>
       </c>
       <c r="S7" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T7" t="n">
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="U7" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="V7" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W7" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X7" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y7" t="n">
         <v>5.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4</v>
+        <v>-4.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>20</v>
@@ -1663,7 +1730,7 @@
         <v>22</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
         <v>2</v>
@@ -1681,7 +1748,7 @@
         <v>20</v>
       </c>
       <c r="AM7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN7" t="n">
         <v>21</v>
@@ -1690,7 +1757,7 @@
         <v>15</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ7" t="n">
         <v>20</v>
@@ -1699,19 +1766,19 @@
         <v>2</v>
       </c>
       <c r="AS7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT7" t="n">
         <v>10</v>
       </c>
       <c r="AU7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1720,10 +1787,10 @@
         <v>27</v>
       </c>
       <c r="AZ7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -1758,58 +1825,58 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" t="n">
         <v>36</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="J8" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="L8" t="n">
         <v>8.5</v>
       </c>
       <c r="M8" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.377</v>
+        <v>0.378</v>
       </c>
       <c r="O8" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P8" t="n">
         <v>21.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.802</v>
+        <v>0.803</v>
       </c>
       <c r="R8" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S8" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T8" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U8" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="V8" t="n">
         <v>13.5</v>
@@ -1830,25 +1897,25 @@
         <v>19.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.4</v>
+        <v>104.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1857,7 +1924,7 @@
         <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL8" t="n">
         <v>8</v>
@@ -1866,22 +1933,22 @@
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR8" t="n">
         <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
         <v>28</v>
@@ -1890,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="AV8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW8" t="n">
         <v>3</v>
@@ -1902,10 +1969,10 @@
         <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB8" t="n">
         <v>7</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2039,7 +2106,7 @@
         <v>6</v>
       </c>
       <c r="AK9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
         <v>11</v>
@@ -2048,7 +2115,7 @@
         <v>9</v>
       </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
         <v>9</v>
@@ -2078,10 +2145,10 @@
         <v>24</v>
       </c>
       <c r="AX9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ9" t="n">
         <v>28</v>
@@ -2093,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="BC9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>-2.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF10" t="n">
         <v>21</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>20</v>
       </c>
       <c r="AG10" t="n">
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
         <v>6</v>
@@ -2227,13 +2294,13 @@
         <v>28</v>
       </c>
       <c r="AM10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN10" t="n">
         <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP10" t="n">
         <v>6</v>
@@ -2245,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT10" t="n">
         <v>9</v>
@@ -2272,10 +2339,10 @@
         <v>15</v>
       </c>
       <c r="BB10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -2304,43 +2371,43 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" t="n">
         <v>23</v>
       </c>
       <c r="G11" t="n">
-        <v>0.61</v>
+        <v>0.603</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="J11" t="n">
-        <v>85.09999999999999</v>
+        <v>85</v>
       </c>
       <c r="K11" t="n">
         <v>0.456</v>
       </c>
       <c r="L11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M11" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.378</v>
+        <v>0.377</v>
       </c>
       <c r="O11" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="P11" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="Q11" t="n">
         <v>0.745</v>
@@ -2355,7 +2422,7 @@
         <v>45.8</v>
       </c>
       <c r="U11" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V11" t="n">
         <v>15.7</v>
@@ -2373,28 +2440,28 @@
         <v>22</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.4</v>
+        <v>103</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
         <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
         <v>7</v>
@@ -2403,7 +2470,7 @@
         <v>7</v>
       </c>
       <c r="AK11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL11" t="n">
         <v>5</v>
@@ -2415,7 +2482,7 @@
         <v>7</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2436,7 +2503,7 @@
         <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW11" t="n">
         <v>13</v>
@@ -2451,13 +2518,13 @@
         <v>24</v>
       </c>
       <c r="BA11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB11" t="n">
         <v>10</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>4.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
         <v>7</v>
@@ -2576,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
         <v>14</v>
@@ -2588,13 +2655,13 @@
         <v>3</v>
       </c>
       <c r="AL12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2621,13 +2688,13 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
         <v>13</v>
@@ -2639,7 +2706,7 @@
         <v>3</v>
       </c>
       <c r="BC12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2761,7 +2828,7 @@
         <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ13" t="n">
         <v>25</v>
@@ -2779,7 +2846,7 @@
         <v>20</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
         <v>13</v>
@@ -2800,13 +2867,13 @@
         <v>24</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
         <v>11</v>
@@ -2818,7 +2885,7 @@
         <v>6</v>
       </c>
       <c r="BB13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC13" t="n">
         <v>1</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" t="n">
         <v>39</v>
       </c>
       <c r="G15" t="n">
-        <v>0.339</v>
+        <v>0.328</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J15" t="n">
         <v>83.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.448</v>
+        <v>0.446</v>
       </c>
       <c r="L15" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M15" t="n">
         <v>24.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.382</v>
+        <v>0.376</v>
       </c>
       <c r="O15" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P15" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="R15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S15" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T15" t="n">
-        <v>41.8</v>
+        <v>42</v>
       </c>
       <c r="U15" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="V15" t="n">
         <v>15.4</v>
@@ -3092,34 +3159,34 @@
         <v>6.8</v>
       </c>
       <c r="X15" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y15" t="n">
         <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.1</v>
+        <v>100.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.4</v>
+        <v>-5.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF15" t="n">
         <v>26</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH15" t="n">
         <v>28</v>
@@ -3131,7 +3198,7 @@
         <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL15" t="n">
         <v>3</v>
@@ -3140,7 +3207,7 @@
         <v>6</v>
       </c>
       <c r="AN15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AO15" t="n">
         <v>21</v>
@@ -3149,7 +3216,7 @@
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
         <v>25</v>
@@ -3161,31 +3228,31 @@
         <v>23</v>
       </c>
       <c r="AU15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>27</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>15</v>
+      </c>
+      <c r="BC15" t="n">
         <v>28</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>28</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>14</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>27</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" t="n">
         <v>32</v>
       </c>
       <c r="F16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J16" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L16" t="n">
         <v>4.9</v>
@@ -3244,7 +3311,7 @@
         <v>14.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.348</v>
+        <v>0.343</v>
       </c>
       <c r="O16" t="n">
         <v>15.2</v>
@@ -3256,49 +3323,49 @@
         <v>0.751</v>
       </c>
       <c r="R16" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S16" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T16" t="n">
-        <v>42.3</v>
+        <v>42.5</v>
       </c>
       <c r="U16" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V16" t="n">
         <v>13.5</v>
       </c>
       <c r="W16" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X16" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA16" t="n">
         <v>18.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.2</v>
+        <v>95</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
       </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -3340,19 +3407,19 @@
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW16" t="n">
         <v>16</v>
       </c>
       <c r="AX16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY16" t="n">
         <v>22</v>
@@ -3364,7 +3431,7 @@
         <v>30</v>
       </c>
       <c r="BB16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -3477,13 +3544,13 @@
         <v>30</v>
       </c>
       <c r="AE17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF17" t="n">
         <v>2</v>
       </c>
       <c r="AG17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH17" t="n">
         <v>9</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3686,7 +3753,7 @@
         <v>17</v>
       </c>
       <c r="AN18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO18" t="n">
         <v>28</v>
@@ -3713,10 +3780,10 @@
         <v>24</v>
       </c>
       <c r="AW18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY18" t="n">
         <v>19</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>4</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3868,7 +3935,7 @@
         <v>13</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3877,7 +3944,7 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
@@ -3889,7 +3956,7 @@
         <v>4</v>
       </c>
       <c r="AU19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="n">
         <v>6</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" t="n">
         <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" t="n">
-        <v>0.397</v>
+        <v>0.404</v>
       </c>
       <c r="H20" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
         <v>6.1</v>
@@ -3978,19 +4045,19 @@
         <v>17.2</v>
       </c>
       <c r="P20" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="R20" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S20" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T20" t="n">
-        <v>42.2</v>
+        <v>42.4</v>
       </c>
       <c r="U20" t="n">
         <v>21.3</v>
@@ -4002,34 +4069,34 @@
         <v>8</v>
       </c>
       <c r="X20" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.4</v>
+        <v>-2.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF20" t="n">
         <v>20</v>
       </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH20" t="n">
         <v>14</v>
@@ -4038,10 +4105,10 @@
         <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
         <v>26</v>
@@ -4068,13 +4135,13 @@
         <v>26</v>
       </c>
       <c r="AT20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU20" t="n">
         <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW20" t="n">
         <v>12</v>
@@ -4089,13 +4156,13 @@
         <v>27</v>
       </c>
       <c r="BA20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" t="n">
         <v>21</v>
       </c>
       <c r="F21" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" t="n">
-        <v>0.356</v>
+        <v>0.362</v>
       </c>
       <c r="H21" t="n">
         <v>48.6</v>
@@ -4142,10 +4209,10 @@
         <v>36.9</v>
       </c>
       <c r="J21" t="n">
-        <v>83.3</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L21" t="n">
         <v>9</v>
@@ -4154,31 +4221,31 @@
         <v>24.6</v>
       </c>
       <c r="N21" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O21" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="P21" t="n">
         <v>19.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.751</v>
+        <v>0.748</v>
       </c>
       <c r="R21" t="n">
         <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T21" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U21" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V21" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="W21" t="n">
         <v>7.7</v>
@@ -4196,13 +4263,13 @@
         <v>19.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.7</v>
+        <v>-2.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
@@ -4214,13 +4281,13 @@
         <v>24</v>
       </c>
       <c r="AH21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK21" t="n">
         <v>19</v>
@@ -4241,19 +4308,19 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AR21" t="n">
         <v>19</v>
       </c>
       <c r="AS21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT21" t="n">
         <v>26</v>
       </c>
       <c r="AU21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV21" t="n">
         <v>2</v>
@@ -4265,7 +4332,7 @@
         <v>20</v>
       </c>
       <c r="AY21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ21" t="n">
         <v>26</v>
@@ -4277,7 +4344,7 @@
         <v>21</v>
       </c>
       <c r="BC21" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="n">
         <v>15</v>
       </c>
       <c r="G22" t="n">
-        <v>0.746</v>
+        <v>0.741</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
@@ -4324,76 +4391,76 @@
         <v>39</v>
       </c>
       <c r="J22" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K22" t="n">
         <v>0.474</v>
       </c>
       <c r="L22" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M22" t="n">
         <v>20.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O22" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="P22" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.803</v>
+        <v>0.802</v>
       </c>
       <c r="R22" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S22" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="T22" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="U22" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V22" t="n">
         <v>15.8</v>
       </c>
       <c r="W22" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X22" t="n">
         <v>6.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA22" t="n">
         <v>20</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.9</v>
+        <v>104.8</v>
       </c>
       <c r="AC22" t="n">
         <v>6.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
         <v>3</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH22" t="n">
         <v>26</v>
@@ -4402,10 +4469,10 @@
         <v>5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL22" t="n">
         <v>17</v>
@@ -4414,7 +4481,7 @@
         <v>16</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4423,7 +4490,7 @@
         <v>11</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR22" t="n">
         <v>17</v>
@@ -4435,7 +4502,7 @@
         <v>8</v>
       </c>
       <c r="AU22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV22" t="n">
         <v>28</v>
@@ -4450,10 +4517,10 @@
         <v>4</v>
       </c>
       <c r="AZ22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB22" t="n">
         <v>5</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -4578,31 +4645,31 @@
         <v>28</v>
       </c>
       <c r="AH23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI23" t="n">
         <v>22</v>
       </c>
       <c r="AJ23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL23" t="n">
         <v>19</v>
       </c>
       <c r="AM23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO23" t="n">
         <v>24</v>
       </c>
       <c r="AP23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ23" t="n">
         <v>12</v>
@@ -4614,7 +4681,7 @@
         <v>10</v>
       </c>
       <c r="AT23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AU23" t="n">
         <v>20</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-10.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4760,7 +4827,7 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI24" t="n">
         <v>12</v>
@@ -4790,7 +4857,7 @@
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS24" t="n">
         <v>14</v>
@@ -4814,7 +4881,7 @@
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA24" t="n">
         <v>13</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>0.586</v>
+        <v>0.579</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
@@ -4870,10 +4937,10 @@
         <v>38.6</v>
       </c>
       <c r="J25" t="n">
-        <v>84.2</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L25" t="n">
         <v>9.199999999999999</v>
@@ -4882,28 +4949,28 @@
         <v>25.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O25" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P25" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.759</v>
+        <v>0.757</v>
       </c>
       <c r="R25" t="n">
         <v>11.6</v>
       </c>
       <c r="S25" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T25" t="n">
-        <v>43.3</v>
+        <v>43.5</v>
       </c>
       <c r="U25" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="V25" t="n">
         <v>15.2</v>
@@ -4918,31 +4985,31 @@
         <v>4.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>104.9</v>
+        <v>104.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
       </c>
       <c r="AF25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG25" t="n">
         <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
         <v>9</v>
@@ -4963,7 +5030,7 @@
         <v>10</v>
       </c>
       <c r="AO25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP25" t="n">
         <v>10</v>
@@ -4975,7 +5042,7 @@
         <v>13</v>
       </c>
       <c r="AS25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT25" t="n">
         <v>13</v>
@@ -4999,7 +5066,7 @@
         <v>25</v>
       </c>
       <c r="BA25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB25" t="n">
         <v>6</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>4.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>5</v>
@@ -5124,7 +5191,7 @@
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5142,13 +5209,13 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO26" t="n">
         <v>6</v>
       </c>
       <c r="AP26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -5216,46 +5283,46 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="n">
         <v>20</v>
       </c>
       <c r="F27" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" t="n">
-        <v>0.345</v>
+        <v>0.351</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J27" t="n">
-        <v>83.09999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L27" t="n">
         <v>6.6</v>
       </c>
       <c r="M27" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N27" t="n">
         <v>0.345</v>
       </c>
       <c r="O27" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="P27" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.778</v>
+        <v>0.779</v>
       </c>
       <c r="R27" t="n">
         <v>11.9</v>
@@ -5267,34 +5334,34 @@
         <v>43.6</v>
       </c>
       <c r="U27" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="V27" t="n">
         <v>15.1</v>
       </c>
       <c r="W27" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X27" t="n">
         <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.7</v>
+        <v>101.3</v>
       </c>
       <c r="AC27" t="n">
         <v>-2.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5306,25 +5373,25 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI27" t="n">
         <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL27" t="n">
         <v>24</v>
       </c>
       <c r="AM27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO27" t="n">
         <v>4</v>
@@ -5333,10 +5400,10 @@
         <v>4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS27" t="n">
         <v>17</v>
@@ -5351,25 +5418,25 @@
         <v>18</v>
       </c>
       <c r="AW27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX27" t="n">
         <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA27" t="n">
         <v>4</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -5398,67 +5465,67 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.724</v>
+        <v>0.719</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="J28" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.488</v>
+        <v>0.489</v>
       </c>
       <c r="L28" t="n">
         <v>8</v>
       </c>
       <c r="M28" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.39</v>
+        <v>0.389</v>
       </c>
       <c r="O28" t="n">
         <v>15.6</v>
       </c>
       <c r="P28" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.784</v>
+        <v>0.781</v>
       </c>
       <c r="R28" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="T28" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U28" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="V28" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W28" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X28" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y28" t="n">
         <v>4.8</v>
@@ -5470,13 +5537,13 @@
         <v>19.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.8</v>
+        <v>104</v>
       </c>
       <c r="AC28" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5488,13 +5555,13 @@
         <v>4</v>
       </c>
       <c r="AH28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5518,13 +5585,13 @@
         <v>4</v>
       </c>
       <c r="AR28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS28" t="n">
         <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
@@ -5533,10 +5600,10 @@
         <v>15</v>
       </c>
       <c r="AW28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY28" t="n">
         <v>18</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5670,7 +5737,7 @@
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI29" t="n">
         <v>24</v>
@@ -5697,7 +5764,7 @@
         <v>8</v>
       </c>
       <c r="AQ29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR29" t="n">
         <v>10</v>
@@ -5724,7 +5791,7 @@
         <v>13</v>
       </c>
       <c r="AZ29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -5762,55 +5829,55 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" t="n">
         <v>21</v>
       </c>
       <c r="F30" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30" t="n">
-        <v>0.362</v>
+        <v>0.368</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
       </c>
       <c r="I30" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J30" t="n">
         <v>81.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.442</v>
+        <v>0.444</v>
       </c>
       <c r="L30" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="M30" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="N30" t="n">
-        <v>0.355</v>
+        <v>0.351</v>
       </c>
       <c r="O30" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="P30" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="R30" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S30" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T30" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="U30" t="n">
         <v>20.1</v>
@@ -5828,31 +5895,31 @@
         <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.8</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-5.6</v>
+        <v>-5.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE30" t="n">
         <v>23</v>
       </c>
       <c r="AF30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG30" t="n">
         <v>23</v>
       </c>
       <c r="AH30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI30" t="n">
         <v>26</v>
@@ -5861,25 +5928,25 @@
         <v>26</v>
       </c>
       <c r="AK30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN30" t="n">
         <v>22</v>
       </c>
-      <c r="AL30" t="n">
+      <c r="AO30" t="n">
         <v>22</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>23</v>
       </c>
       <c r="AP30" t="n">
         <v>21</v>
       </c>
       <c r="AQ30" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AR30" t="n">
         <v>20</v>
@@ -5900,10 +5967,10 @@
         <v>26</v>
       </c>
       <c r="AX30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ30" t="n">
         <v>17</v>
@@ -5912,10 +5979,10 @@
         <v>16</v>
       </c>
       <c r="BB30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6049,10 +6116,10 @@
         <v>15</v>
       </c>
       <c r="AM31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO31" t="n">
         <v>27</v>
@@ -6073,7 +6140,7 @@
         <v>17</v>
       </c>
       <c r="AU31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV31" t="n">
         <v>14</v>
@@ -6091,7 +6158,7 @@
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>17</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-28-2013-14</t>
+          <t>2014-02-28</t>
         </is>
       </c>
     </row>
